--- a/medicine/Mort/Nécropole_nationale_du_col_de_La_Chipotte/Nécropole_nationale_du_col_de_La_Chipotte.xlsx
+++ b/medicine/Mort/Nécropole_nationale_du_col_de_La_Chipotte/Nécropole_nationale_du_col_de_La_Chipotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_du_col_de_La_Chipotte</t>
+          <t>Nécropole_nationale_du_col_de_La_Chipotte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale du col de La Chipotte est un cimetière militaire français de la Première Guerre mondiale situé sur le territoire de la commune de Saint-Benoît-la-Chipotte dans le département des Vosges.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_du_col_de_La_Chipotte</t>
+          <t>Nécropole_nationale_du_col_de_La_Chipotte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale est située à la sortie du village de Saint-Benoît-la-Chipotte en allant vers Raon-l'Étape.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_du_col_de_La_Chipotte</t>
+          <t>Nécropole_nationale_du_col_de_La_Chipotte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été créée en 1919 et rassemble les corps des soldats morts lors de la Bataille de la Mortagne en août-septembre 1914. Il a été aménagé de 1920 à 1935. On y a regroupé des dépouilles de soldats exhumés de carrés militaires de cimetières communaux de la région entre Rambervillers et Saint-Dié-des-Vosges. La nécropole du col de La Chipotte a été rénovée en 1975[1].
-Le site est candidat à son inscription sur la liste du Patrimoine mondial de l'humanité établie par l'Unesco au titre de son appartenance au réseau des 139 sites funéraires et mémoriel de la Première Guerre mondiale (front ouest)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été créée en 1919 et rassemble les corps des soldats morts lors de la Bataille de la Mortagne en août-septembre 1914. Il a été aménagé de 1920 à 1935. On y a regroupé des dépouilles de soldats exhumés de carrés militaires de cimetières communaux de la région entre Rambervillers et Saint-Dié-des-Vosges. La nécropole du col de La Chipotte a été rénovée en 1975.
+Le site est candidat à son inscription sur la liste du Patrimoine mondial de l'humanité établie par l'Unesco au titre de son appartenance au réseau des 139 sites funéraires et mémoriel de la Première Guerre mondiale (front ouest).
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_du_col_de_La_Chipotte</t>
+          <t>Nécropole_nationale_du_col_de_La_Chipotte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +590,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">superficie : 7 070 m2
-nombre de sépultures : 1 899 corps dont 893 en deux ossuaires[1].
+nombre de sépultures : 1 899 corps dont 893 en deux ossuaires.
 Ce cimetière militaire regroupe les corps des militaires précédemment inhumés dans les cimetières de Sainte-Barbe, du Bois de la Pêche, de la Forêt de Chaumont, d'Autrey…
-Un monument aux morts 1914-1918 en forme de colonne tronquée a été érigé dans ce cimetière[1].
+Un monument aux morts 1914-1918 en forme de colonne tronquée a été érigé dans ce cimetière.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_du_col_de_La_Chipotte</t>
+          <t>Nécropole_nationale_du_col_de_La_Chipotte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Monuments commémoratifs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Monument dit « des Chasseurs » à la gloire de la 86e Brigade, érigé au col, à côté de la Nécropole ; œuvre de l'architecte Emmanuel Cateland.
 Monument dit « des Coloniaux » situé au nord, au carrefour des routes descendant sur Raon-l'Étape et sur Étival-Clairefontaine, érigé à la mémoire des 5e et 6e régiment d'infanterie coloniale.</t>
